--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Gm13306</t>
   </si>
   <si>
     <t>Ccr10</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,75 +522,75 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3036856666666666</v>
+        <v>0.169054</v>
       </c>
       <c r="H2">
-        <v>0.9110569999999999</v>
+        <v>0.338108</v>
       </c>
       <c r="I2">
-        <v>0.761480523073464</v>
+        <v>0.2998784017861604</v>
       </c>
       <c r="J2">
-        <v>0.8160485478200507</v>
+        <v>0.2245827615387374</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1003636666666667</v>
+        <v>0.2651005</v>
       </c>
       <c r="N2">
-        <v>0.301091</v>
+        <v>0.530201</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="Q2">
-        <v>0.03047900702077777</v>
+        <v>0.04481629992700001</v>
       </c>
       <c r="R2">
-        <v>0.274311063187</v>
+        <v>0.179265199708</v>
       </c>
       <c r="S2">
-        <v>0.761480523073464</v>
+        <v>0.08044808660358699</v>
       </c>
       <c r="T2">
-        <v>0.8160485478200507</v>
+        <v>0.06024859857304632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,108 +599,418 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.08000349999999999</v>
+        <v>0.169054</v>
       </c>
       <c r="H3">
-        <v>0.160007</v>
+        <v>0.338108</v>
       </c>
       <c r="I3">
-        <v>0.200605803021242</v>
+        <v>0.2998784017861604</v>
       </c>
       <c r="J3">
-        <v>0.1433208679490338</v>
+        <v>0.2245827615387374</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1003636666666667</v>
+        <v>0.7230885</v>
       </c>
       <c r="N3">
-        <v>0.301091</v>
+        <v>1.446177</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="Q3">
-        <v>0.008029444606166666</v>
+        <v>0.122241003279</v>
       </c>
       <c r="R3">
-        <v>0.04817666763699999</v>
+        <v>0.488964013116</v>
       </c>
       <c r="S3">
-        <v>0.200605803021242</v>
+        <v>0.2194303151825734</v>
       </c>
       <c r="T3">
-        <v>0.1433208679490338</v>
+        <v>0.1643341629656911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.3036856666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.911057</v>
+      </c>
+      <c r="I4">
+        <v>0.5386963477076239</v>
+      </c>
+      <c r="J4">
+        <v>0.605154852825717</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.2651005</v>
+      </c>
+      <c r="N4">
+        <v>0.530201</v>
+      </c>
+      <c r="O4">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P4">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q4">
+        <v>0.08050722207616667</v>
+      </c>
+      <c r="R4">
+        <v>0.483043332457</v>
+      </c>
+      <c r="S4">
+        <v>0.1445155442182264</v>
+      </c>
+      <c r="T4">
+        <v>0.1623443026197661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3036856666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.911057</v>
+      </c>
+      <c r="I5">
+        <v>0.5386963477076239</v>
+      </c>
+      <c r="J5">
+        <v>0.605154852825717</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.7230885</v>
+      </c>
+      <c r="N5">
+        <v>1.446177</v>
+      </c>
+      <c r="O5">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P5">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q5">
+        <v>0.2195916131815</v>
+      </c>
+      <c r="R5">
+        <v>1.317549679089</v>
+      </c>
+      <c r="S5">
+        <v>0.3941808034893975</v>
+      </c>
+      <c r="T5">
+        <v>0.442810550205951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.0166775</v>
+      </c>
+      <c r="H6">
+        <v>0.033355</v>
+      </c>
+      <c r="I6">
+        <v>0.02958357711612082</v>
+      </c>
+      <c r="J6">
+        <v>0.02215551838798428</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.2651005</v>
+      </c>
+      <c r="N6">
+        <v>0.530201</v>
+      </c>
+      <c r="O6">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P6">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q6">
+        <v>0.00442121358875</v>
+      </c>
+      <c r="R6">
+        <v>0.017684854355</v>
+      </c>
+      <c r="S6">
+        <v>0.007936357402553752</v>
+      </c>
+      <c r="T6">
+        <v>0.005943639326499107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0166775</v>
+      </c>
+      <c r="H7">
+        <v>0.033355</v>
+      </c>
+      <c r="I7">
+        <v>0.02958357711612082</v>
+      </c>
+      <c r="J7">
+        <v>0.02215551838798428</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.7230885</v>
+      </c>
+      <c r="N7">
+        <v>1.446177</v>
+      </c>
+      <c r="O7">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P7">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q7">
+        <v>0.01205930845875</v>
+      </c>
+      <c r="R7">
+        <v>0.048237233835</v>
+      </c>
+      <c r="S7">
+        <v>0.02164721971356708</v>
+      </c>
+      <c r="T7">
+        <v>0.01621187906148517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.01512033333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.045361</v>
-      </c>
-      <c r="I4">
-        <v>0.03791367390529397</v>
-      </c>
-      <c r="J4">
-        <v>0.04063058423091565</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1003636666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.301091</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.001517532094555555</v>
-      </c>
-      <c r="R4">
-        <v>0.013657788851</v>
-      </c>
-      <c r="S4">
-        <v>0.03791367390529397</v>
-      </c>
-      <c r="T4">
-        <v>0.04063058423091565</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07432466666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.222974</v>
+      </c>
+      <c r="I8">
+        <v>0.1318416733900949</v>
+      </c>
+      <c r="J8">
+        <v>0.1481068672475613</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.2651005</v>
+      </c>
+      <c r="N8">
+        <v>0.530201</v>
+      </c>
+      <c r="O8">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P8">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q8">
+        <v>0.01970350629566667</v>
+      </c>
+      <c r="R8">
+        <v>0.118221037774</v>
+      </c>
+      <c r="S8">
+        <v>0.03536903723533744</v>
+      </c>
+      <c r="T8">
+        <v>0.0397324849403931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07432466666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.222974</v>
+      </c>
+      <c r="I9">
+        <v>0.1318416733900949</v>
+      </c>
+      <c r="J9">
+        <v>0.1481068672475613</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.7230885</v>
+      </c>
+      <c r="N9">
+        <v>1.446177</v>
+      </c>
+      <c r="O9">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P9">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q9">
+        <v>0.053743311733</v>
+      </c>
+      <c r="R9">
+        <v>0.322459870398</v>
+      </c>
+      <c r="S9">
+        <v>0.0964726361547575</v>
+      </c>
+      <c r="T9">
+        <v>0.1083743823071682</v>
       </c>
     </row>
   </sheetData>
